--- a/biology/Zoologie/Anolis_punctatus/Anolis_punctatus.xlsx
+++ b/biology/Zoologie/Anolis_punctatus/Anolis_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis punctatus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis punctatus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Colombie ;
 au Venezuela dans l'État de Bolívar ;
 au Guyana ;
@@ -550,7 +564,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anolis punctatus Gray, 1840 nec Daudin, 1802 est un synonyme de Anolis grahami Gray, 1845.
 </t>
@@ -581,9 +597,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 avril 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 avril 2012) :
 Anolis punctatus boulengeri O’Shaughnessy, 1881
 Anolis punctatus punctatus Daudin, 1802</t>
         </is>
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daudin, 1802 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 4, F. Dufart, Paris, p. 1-397 (texte intégral).
 O’Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
